--- a/docs/excel/TText.xlsx
+++ b/docs/excel/TText.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="72">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -2422,6 +2422,46 @@
       </rPr>
       <t>群</t>
     </r>
+  </si>
+  <si>
+    <t>TwText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;font color='#61ead9'&gt;如何領取實物獎勵？&lt;/font&gt;\n&lt;font color='#D3DCDC'&gt;1，點擊個人頭像打開個人資訊資料視窗，在視窗左下角點擊“我的獎品”即可進入獎品領取頁面。\n2，請按照要求填寫所有領獎資訊並保存，以便及時領取獎品。&lt;/font&gt;\n\n&lt;font color='#61ead9'&gt;什麼是錦標賽&lt;/font&gt;\n&lt;font color='#D3DCDC'&gt;錦標賽是一直定時多桌的德州撲克比賽玩法。所有參賽玩家以同樣的金幣數量開局，直至僅剩一名玩家擁有金幣，冠軍產生，比賽結束。為保證比賽激烈程度，隨著比賽進行，盲注等級將不斷提升。\n\n&lt;/font&gt;&lt;font color='#61ead9'&gt;錦標賽規則&lt;/font&gt;\n&lt;font color='#D3DCDC'&gt;1，固定時間開始比賽，屆時若參數人數不足最低人數要求，則比賽取消，返還全部報名費用。\n2，參加必要需要支付報名費+服務費。主動退賽僅退還報名費，不退還服務費。\n3，逾期未參加比賽，將不退還任何費用，請提前進入遊戲並準時參加。\n4，比賽中玩家將使用比賽籌碼進行比賽（比賽籌碼不等於帳戶中的金幣），僅用於比賽內計數。\n5，前注：比賽進行過程中，每局開始前強制所有玩家自動下注若干金幣，即為前注。\n6，重購籌碼（rebuy）：在可以rebuy的比賽中規定的盲注級別內，若玩家當前金幣≤初始金幣時（或被淘汰），可以再次花費比賽參賽費額外買入一份初始買入籌碼。\n7，增購籌碼（addon）：在可以addon的比賽中規定的盲注級別內，玩家可以再次花費報名費額外買入若干籌碼。\n8，比賽根據比賽代幣數進行排位，最先退出比賽的玩家即為最後一名，以此類推。同時被淘汰則依次按照牌力、開始時籌碼定位名次，牌力大者排名在前，開始時籌碼多者排名在前。\n9，當比賽裡只剩下最後一名玩家時比賽結束，最後一名玩家即是冠軍。\n10，比賽優先使用門票報名，金幣報名（參賽費+服務費，如“10萬+1萬”）退賽時將僅退還參賽費，賽事開始後無法退賽。\n\n&lt;/font&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推廣招募微信:ceshizhanghu1、ceshizhanghu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;font color='#2f5b57'&gt;親愛的玩家你好&lt;/font&gt;\n1，歡迎來到盱眙麻將。\n此為測試版本，如你遇到任何問題，請諮詢客服。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;font color='#d0d9d9'&gt;1，在牌局進行中，您可以使用牌桌外的籌碼在手牌競猜中購買手牌類型，在規定數量內進行購買。\n2，購買的額度根據當前所在房間的大盲注為准。\n3，當您在開局，獲得手牌後進行結算，若發出您競猜的手牌牌型，則返還您該項目的投入並按其比例獎勵您金幣到您的帳戶。\n4，遊戲開始後，只能購買下局的手牌。\n5，本周榜單的時間為：每週一0:00開始到每週日23:59為止。\n6，開獎資訊只記錄當前牌桌內，最近10局的手牌開獎資訊。\n7，購買記錄只記錄所有牌桌中，最多30條的手牌競猜記錄。&lt;/font&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;font color='#f9cb55'&gt;規則&lt;/font&gt;\n1，根據玩家當前攜帶的籌碼計算可下注的額度\n2，選擇不同額度，點擊中間的四個不同下注區域可進行下注。\n3，在下注結束後，莊家和下方的四個閑家每家發五張牌，發牌完畢後進行比牌。\n4，按照牌型大小，玩家可贏取或者賠付相應倍率的籌碼。\n5，玩家攜帶金幣達到一定數量，可選擇成為莊家。成為莊家以後，不需要進行投注，只需等待其他玩家投注就可以坐等收益。\n\n&lt;font color='#f9cb55'&gt;牌型大小以及賠率&lt;/font&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;font color='#f9cb55'&gt;獎池資金：&lt;/font&gt;\n玩家或莊家勝出後，系統從盈利中抽取極少一部分放入彩池中。\n\n&lt;font color='#f9cb55'&gt;如何參與獎池：&lt;/font&gt;\n凡是參與投注即視為參與了獎池，投注的選項中擊中了牌型：四條，同花順，皇家同花順牌型即可獲得獎池獎勵。\n\n&lt;font color='#f9cb55'&gt;獎池如何分配：&lt;/font&gt;\n1，凡是擊中對應牌型組合即可獲得總獎池的對應比例。皇家同花順-50%、同花順-40%、四條-30%\n2，多個玩家一起擊中對應牌型將會按投注比例分配，投注越多的玩家將獲得越多獎勵。\n3，如果同個回合擊中多個中獎牌型組合，那將會從大到小的牌型組合依次分配獎勵。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;font color='#ccfff6' size='30'&gt;德州撲克，全稱為德克薩斯撲克，它是一種玩家對玩家的公共牌類遊戲。&lt;/font&gt;\n\n&lt;font color='#ffd059' size='32'&gt;玩法&lt;/font&gt;\n\n&lt;font color='#ccfff6' size='30'&gt;1.\t每個玩家發兩張底牌，五張由荷官陸續朝\t\t\t\t上發出的公共牌(依次發3張、1張、1張)\n2.\t牌局開始，每個玩家會有兩張面朝下的底\t\t\t\t牌。\n3.\t經過所有押注圈，若仍不能分出勝負，遊\t\t\t\t戲會進入“攤牌”階段。\n4.\t在攤牌階段，所剩的玩家亮出各自的底牌\t\t\t\t以較高下，持大牌者獲勝。&lt;/font&gt;\n\n\n&lt;font color='#ffd059' size='32'&gt;比賽用牌&lt;/font&gt;\n\n&lt;font color='#ccfff6' size='30'&gt;德州撲克一共有52張牌，沒有王牌。&lt;/font&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;font size='30'&gt;一.如何獲得歡樂券？&lt;/font&gt;\n&lt;font size='28'&gt;1.在德州撲克大於等於500/1000的房間裡打牌或者下注額大於等於2000的德州轉轉轉均可獲得歡樂券。玩的場次越大獲得的歡樂券越多。\n2.普通玩家充值即可獲得歡樂券，充值1元贈送1歡樂券，充值額度必須大於10元，低於10元不贈送歡樂券。&lt;/font&gt;\n\n&lt;font  size='30'&gt;二.歡樂券會過期嗎？&lt;/font&gt;\n&lt;font size='28'&gt;活動結束後將會保留一天時間使用歡樂券，切記一定要在活動結束前使用歡樂券，活動結束後歡樂券會清空哦！！&lt;/font&gt;\n\n\n&lt;font  size='30'&gt;三.禮品可以重複兌換碼？&lt;/font&gt;\n&lt;font size='28'&gt;不可以哦~每種禮品在活動期間內只能兌換一次~&lt;/font&gt;\n\n&lt;font size='28'&gt;*活動的最終解釋權歸星運德州所有&lt;/font&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;font color='#61ead9'&gt;遊戲介紹&lt;/font&gt;\n&lt;font color='#D3DCDC'&gt;奧馬哈撲克遊戲(Omaha Poker)是一種與德克薩斯撲克相似的撲克遊戲，在玩家當中長盛不衰，該遊戲始於20世紀90年代。&lt;/font&gt;\n\n&lt;font color='#61ead9'&gt;基本玩法&lt;/font&gt;\n&lt;font color='#D3DCDC'&gt;每個牌手發四張底牌，然後再依次發五張公共牌（翻牌圈發3張、轉牌圈發1張、河牌圈發1張），每個牌手必須從手裡的四張牌中選取兩張，從五張公共牌中選取三張，組合成最大的牌組，與其他人進行輸贏比較。&lt;/font&gt;\n\n&lt;font color='#61ead9'&gt;牌型介紹&lt;/font&gt;\n&lt;font color='#D3DCDC'&gt;牌型與德州撲克一致，由大到小為\n10，皇家同花順\n9，同花順\n8，四條\n7，葫蘆\n6，同花\n8，順子\n4，三條\n3，兩對\n2，一對\n1，高牌&lt;/font&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2838,10 +2878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E225"/>
+  <dimension ref="A1:F225"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2851,10 +2891,11 @@
     <col min="3" max="3" width="11.69921875" style="6" customWidth="1"/>
     <col min="4" max="4" width="8.796875" style="5"/>
     <col min="5" max="5" width="10.3984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.796875" style="5"/>
+    <col min="6" max="6" width="15.19921875" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="8.796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -2870,8 +2911,11 @@
       <c r="E1" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
@@ -2887,20 +2931,23 @@
       <c r="E2" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -2916,8 +2963,11 @@
       <c r="E5" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>101</v>
       </c>
@@ -2930,8 +2980,11 @@
       <c r="E6" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>201</v>
       </c>
@@ -2947,8 +3000,11 @@
       <c r="E7" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>301</v>
       </c>
@@ -2961,8 +3017,11 @@
       <c r="E8" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>3</v>
       </c>
@@ -2975,8 +3034,11 @@
       <c r="E9" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>4</v>
       </c>
@@ -2989,8 +3051,11 @@
       <c r="E10" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>5</v>
       </c>
@@ -3003,8 +3068,11 @@
       <c r="E11" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>7</v>
       </c>
@@ -3017,8 +3085,11 @@
       <c r="E12" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>8</v>
       </c>
@@ -3031,8 +3102,11 @@
       <c r="E13" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>9</v>
       </c>
@@ -3045,8 +3119,11 @@
       <c r="E14" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>302</v>
       </c>
@@ -3059,8 +3136,11 @@
       <c r="E15" s="5">
         <v>695986148</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" s="5">
+        <v>695986148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>

--- a/docs/excel/TText.xlsx
+++ b/docs/excel/TText.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="80">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -2461,6 +2461,38 @@
   </si>
   <si>
     <t>&lt;font color='#61ead9'&gt;遊戲介紹&lt;/font&gt;\n&lt;font color='#D3DCDC'&gt;奧馬哈撲克遊戲(Omaha Poker)是一種與德克薩斯撲克相似的撲克遊戲，在玩家當中長盛不衰，該遊戲始於20世紀90年代。&lt;/font&gt;\n\n&lt;font color='#61ead9'&gt;基本玩法&lt;/font&gt;\n&lt;font color='#D3DCDC'&gt;每個牌手發四張底牌，然後再依次發五張公共牌（翻牌圈發3張、轉牌圈發1張、河牌圈發1張），每個牌手必須從手裡的四張牌中選取兩張，從五張公共牌中選取三張，組合成最大的牌組，與其他人進行輸贏比較。&lt;/font&gt;\n\n&lt;font color='#61ead9'&gt;牌型介紹&lt;/font&gt;\n&lt;font color='#D3DCDC'&gt;牌型與德州撲克一致，由大到小為\n10，皇家同花順\n9，同花順\n8，四條\n7，葫蘆\n6，同花\n8，順子\n4，三條\n3，兩對\n2，一對\n1，高牌&lt;/font&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TwTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>錦標賽說明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本資訊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;font color='#ffffff'&gt;玩法規則&lt;/font&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;font color='#ffffff'&gt;規則&lt;/font&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;font color='#ffffff'&gt;獎池說明&lt;/font&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;font color='#ffffff'  size='34'&gt;活動說明&lt;/font&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奧馬哈撲克規則</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2878,24 +2910,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F225"/>
+  <dimension ref="A1:G225"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.5" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.09765625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="11.69921875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="8.796875" style="5"/>
-    <col min="5" max="5" width="10.3984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.19921875" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="8.796875" style="5"/>
+    <col min="2" max="3" width="11.09765625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.69921875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" style="5"/>
+    <col min="6" max="6" width="10.3984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.19921875" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="8.796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -2903,30 +2935,31 @@
         <v>34</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>38</v>
@@ -2934,1261 +2967,1509 @@
       <c r="F2" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="5">
         <v>1</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>101</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="5">
         <v>0</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>201</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="5">
         <v>1</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>301</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="5">
         <v>0</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>3</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>4</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="5">
         <v>1</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="5">
         <v>0</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="5">
         <v>1</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="5">
         <v>1</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="G13" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>9</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="5">
         <v>1</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>302</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="5">
         <v>0</v>
-      </c>
-      <c r="E15" s="5">
-        <v>695986148</v>
       </c>
       <c r="F15" s="5">
         <v>695986148</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="5">
+        <v>695986148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48" s="5"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D49" s="5"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50" s="5"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D51" s="5"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D52" s="5"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D53" s="5"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D54" s="5"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D55" s="5"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D56" s="5"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D57" s="5"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D58" s="5"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D59" s="5"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D60" s="5"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D61" s="5"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D62" s="5"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D63" s="5"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D64" s="5"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D65" s="5"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D66" s="5"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D67" s="5"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D68" s="5"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D69" s="5"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D70" s="5"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D71" s="5"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D72" s="5"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D73" s="5"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D74" s="5"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D75" s="5"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D76" s="5"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D77" s="5"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D78" s="5"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D79" s="5"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D80" s="5"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D81" s="5"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D82" s="5"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D83" s="5"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D84" s="5"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D85" s="5"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D86" s="5"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D87" s="5"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D88" s="5"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D89" s="5"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D90" s="5"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D91" s="5"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D92" s="5"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D93" s="5"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D94" s="5"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D95" s="5"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D96" s="5"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D97" s="5"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D98" s="5"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D99" s="5"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D100" s="5"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D101" s="5"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D102" s="5"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D103" s="5"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D104" s="5"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D105" s="5"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D106" s="5"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D107" s="5"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D108" s="5"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D109" s="5"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D110" s="5"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D111" s="5"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D112" s="5"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D113" s="5"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D114" s="5"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D115" s="5"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D116" s="5"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D117" s="5"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D118" s="5"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D119" s="5"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D120" s="5"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D121" s="5"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D122" s="5"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D123" s="5"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D124" s="5"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D125" s="5"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D126" s="5"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D127" s="5"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D128" s="5"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D129" s="5"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D130" s="5"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D131" s="5"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D132" s="5"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D133" s="5"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D134" s="5"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D135" s="5"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D136" s="5"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D137" s="5"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D138" s="5"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D139" s="5"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D140" s="5"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D141" s="5"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D142" s="5"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D143" s="5"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D144" s="5"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D145" s="5"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D146" s="5"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D147" s="5"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D148" s="5"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D149" s="5"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D150" s="5"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D151" s="5"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D152" s="5"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D153" s="5"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D154" s="5"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D155" s="5"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D156" s="5"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D157" s="5"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D158" s="5"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D159" s="5"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D160" s="5"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D161" s="5"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D162" s="5"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D163" s="5"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D164" s="5"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D165" s="5"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D166" s="5"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D167" s="5"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D168" s="5"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D169" s="5"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D170" s="5"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D171" s="5"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D172" s="5"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D173" s="5"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D174" s="5"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D175" s="5"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D176" s="5"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D177" s="5"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D178" s="5"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D179" s="5"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D180" s="5"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D181" s="5"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D182" s="5"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D183" s="5"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D184" s="5"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D185" s="5"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D186" s="5"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D187" s="5"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D188" s="5"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D189" s="5"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D190" s="5"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D191" s="5"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D192" s="5"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D193" s="5"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D194" s="5"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D195" s="5"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D196" s="5"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D197" s="5"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D198" s="5"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D199" s="5"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D200" s="5"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D201" s="5"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D202" s="5"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D203" s="5"/>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D204" s="5"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D205" s="5"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D206" s="5"/>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D207" s="5"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D208" s="5"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D209" s="5"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D210" s="5"/>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D211" s="5"/>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D212" s="5"/>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D213" s="5"/>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D214" s="5"/>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D215" s="5"/>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D216" s="5"/>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D217" s="5"/>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D218" s="5"/>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D219" s="5"/>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D220" s="5"/>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D221" s="5"/>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D222" s="5"/>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D223" s="5"/>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D224" s="5"/>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
+      <c r="D225" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/excel/TText.xlsx
+++ b/docs/excel/TText.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="81">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -2493,6 +2493,10 @@
   </si>
   <si>
     <t>奧馬哈撲克規則</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2913,13 +2917,14 @@
   <dimension ref="A1:G225"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.5" style="6" customWidth="1"/>
-    <col min="2" max="3" width="11.09765625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="30.19921875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="40.09765625" style="6" customWidth="1"/>
     <col min="4" max="4" width="11.69921875" style="6" customWidth="1"/>
     <col min="5" max="5" width="8.796875" style="5"/>
     <col min="6" max="6" width="10.3984375" style="5" bestFit="1" customWidth="1"/>
@@ -2957,7 +2962,9 @@
       <c r="B2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="D2" s="5" t="s">
         <v>41</v>
       </c>

--- a/docs/excel/TText.xlsx
+++ b/docs/excel/TText.xlsx
@@ -1696,317 +1696,6 @@
   </si>
   <si>
     <r>
-      <t>&lt;font size='30'&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>如何获得欢乐券？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;/font&gt;\n&lt;font size='28'&gt;1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在德州扑克大于等于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>500/1000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的房间里打牌或者下注额大于等于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>2000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的德州转转转均可获得欢乐券。玩的场次越大获得的欢乐券越多。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>\n2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>普通玩家充值即可获得欢乐券，充值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元赠送</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>欢乐券，充值额度必须大于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元，低于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元不赠送欢乐券。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;/font&gt;\n\n&lt;font  size='30'&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>二</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>欢乐券会过期吗？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;/font&gt;\n&lt;font size='28'&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>活动结束后将会保留一天时间使用欢乐券，切记一定要在活动结束前使用欢乐券，活动结束后欢乐券会清空哦！！</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;/font&gt;\n\n\n&lt;font  size='30'&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>三</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>礼品可以重复兑换码？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;/font&gt;\n&lt;font size='28'&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不可以哦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>~</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>每种礼品在活动期间内只能兑换一次</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>~&lt;/font&gt;\n\n&lt;font size='28'&gt;*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>活动的最终解释权归星运德州所有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;/font&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
@@ -2497,6 +2186,318 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;font size='30'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如何获得欢乐券？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/font&gt;\n&lt;font size='28'&gt;1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在德州扑克大于等于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>500/1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的房间里打牌或者下注额大于等于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>2000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的德州转转转均可获得欢乐券。玩的场次越大获得的欢乐券越多。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>\n2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>普通玩家充值即可获得欢乐券，充值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元赠送</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>欢乐券，充值额度必须大于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元，低于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元不赠送欢乐券。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/font&gt;\n\n&lt;font  size='30'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>欢乐券会过期吗？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/font&gt;\n&lt;font size='28'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活动结束后将会保留一天时间使用欢乐券，切记一定要在活动结束前使用欢乐券，活动结束后欢乐券会清空哦！！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/font&gt;\n\n\n&lt;font  size='30'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>三</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>礼品可以重复兑换码？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/font&gt;\n&lt;font size='28'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不可以哦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每种礼品在活动期间内只能兑换一次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>~&lt;/font&gt;\n\n&lt;font size='28'&gt;*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活动的最终解释权归德州扑克所有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/font&gt;</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2916,8 +2917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G225"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2940,7 +2941,7 @@
         <v>34</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>35</v>
@@ -2952,7 +2953,7 @@
         <v>37</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2963,7 +2964,7 @@
         <v>38</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>41</v>
@@ -3000,7 +3001,7 @@
         <v>42</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
@@ -3012,7 +3013,7 @@
         <v>43</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -3032,7 +3033,7 @@
         <v>45</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -3043,7 +3044,7 @@
         <v>46</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
@@ -3055,7 +3056,7 @@
         <v>47</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -3086,7 +3087,7 @@
         <v>49</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D9" s="5">
         <v>1</v>
@@ -3095,7 +3096,7 @@
         <v>50</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -3106,7 +3107,7 @@
         <v>51</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D10" s="5">
         <v>1</v>
@@ -3115,7 +3116,7 @@
         <v>52</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -3126,7 +3127,7 @@
         <v>53</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D11" s="5">
         <v>0</v>
@@ -3135,7 +3136,7 @@
         <v>54</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -3155,7 +3156,7 @@
         <v>56</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -3166,16 +3167,16 @@
         <v>57</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" s="5">
         <v>1</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -3183,19 +3184,19 @@
         <v>9</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" s="5">
         <v>1</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -3203,10 +3204,10 @@
         <v>302</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="5">
         <v>0</v>

--- a/docs/excel/TText.xlsx
+++ b/docs/excel/TText.xlsx
@@ -2145,10 +2145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;font size='30'&gt;一.如何獲得歡樂券？&lt;/font&gt;\n&lt;font size='28'&gt;1.在德州撲克大於等於500/1000的房間裡打牌或者下注額大於等於2000的德州轉轉轉均可獲得歡樂券。玩的場次越大獲得的歡樂券越多。\n2.普通玩家充值即可獲得歡樂券，充值1元贈送1歡樂券，充值額度必須大於10元，低於10元不贈送歡樂券。&lt;/font&gt;\n\n&lt;font  size='30'&gt;二.歡樂券會過期嗎？&lt;/font&gt;\n&lt;font size='28'&gt;活動結束後將會保留一天時間使用歡樂券，切記一定要在活動結束前使用歡樂券，活動結束後歡樂券會清空哦！！&lt;/font&gt;\n\n\n&lt;font  size='30'&gt;三.禮品可以重複兌換碼？&lt;/font&gt;\n&lt;font size='28'&gt;不可以哦~每種禮品在活動期間內只能兌換一次~&lt;/font&gt;\n\n&lt;font size='28'&gt;*活動的最終解釋權歸星運德州所有&lt;/font&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;font color='#61ead9'&gt;遊戲介紹&lt;/font&gt;\n&lt;font color='#D3DCDC'&gt;奧馬哈撲克遊戲(Omaha Poker)是一種與德克薩斯撲克相似的撲克遊戲，在玩家當中長盛不衰，該遊戲始於20世紀90年代。&lt;/font&gt;\n\n&lt;font color='#61ead9'&gt;基本玩法&lt;/font&gt;\n&lt;font color='#D3DCDC'&gt;每個牌手發四張底牌，然後再依次發五張公共牌（翻牌圈發3張、轉牌圈發1張、河牌圈發1張），每個牌手必須從手裡的四張牌中選取兩張，從五張公共牌中選取三張，組合成最大的牌組，與其他人進行輸贏比較。&lt;/font&gt;\n\n&lt;font color='#61ead9'&gt;牌型介紹&lt;/font&gt;\n&lt;font color='#D3DCDC'&gt;牌型與德州撲克一致，由大到小為\n10，皇家同花順\n9，同花順\n8，四條\n7，葫蘆\n6，同花\n8，順子\n4，三條\n3，兩對\n2，一對\n1，高牌&lt;/font&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2488,7 +2484,319 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>活动的最终解释权归德州扑克所有</t>
+      <t>活动的最终解释权归金鑽德州扑克所有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/font&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;font size='30'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如何獲得歡樂券？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/font&gt;\n&lt;font size='28'&gt;1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在德州撲克大於等於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>500/1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的房間裡打牌或者下注額大於等於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>2000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的德州轉轉轉均可獲得歡樂券。玩的場次越大獲得的歡樂券越多。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>\n2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>普通玩家充值即可獲得歡樂券，充值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元贈送</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>歡樂券，充值額度必須大於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元，低於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元不贈送歡樂券。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/font&gt;\n\n&lt;font  size='30'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>歡樂券會過期嗎？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/font&gt;\n&lt;font size='28'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活動結束後將會保留一天時間使用歡樂券，切記一定要在活動結束前使用歡樂券，活動結束後歡樂券會清空哦！！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/font&gt;\n\n\n&lt;font  size='30'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>三</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>禮品可以重複兌換碼？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/font&gt;\n&lt;font size='28'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不可以哦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每種禮品在活動期間內只能兌換一次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>~&lt;/font&gt;\n\n&lt;font size='28'&gt;*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活動的最終解釋權歸金鑽德州撲克所有</t>
     </r>
     <r>
       <rPr>
@@ -2918,7 +3226,7 @@
   <dimension ref="A1:G225"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2941,7 +3249,7 @@
         <v>34</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>35</v>
@@ -2964,7 +3272,7 @@
         <v>38</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>41</v>
@@ -3001,7 +3309,7 @@
         <v>42</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
@@ -3044,7 +3352,7 @@
         <v>46</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
@@ -3087,7 +3395,7 @@
         <v>49</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="5">
         <v>1</v>
@@ -3107,7 +3415,7 @@
         <v>51</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" s="5">
         <v>1</v>
@@ -3127,7 +3435,7 @@
         <v>53</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" s="5">
         <v>0</v>
@@ -3167,16 +3475,16 @@
         <v>57</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" s="5">
         <v>1</v>
       </c>
       <c r="F13" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -3187,7 +3495,7 @@
         <v>58</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="5">
         <v>1</v>
@@ -3196,7 +3504,7 @@
         <v>59</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">

--- a/docs/excel/TText.xlsx
+++ b/docs/excel/TText.xlsx
@@ -3226,7 +3226,7 @@
   <dimension ref="A1:G225"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3438,7 +3438,7 @@
         <v>75</v>
       </c>
       <c r="D11" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>54</v>
